--- a/Tables/I2_table.xlsx
+++ b/Tables/I2_table.xlsx
@@ -407,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>40.84</v>
+        <v>40.72</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -416,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>41.64</v>
+        <v>41.58</v>
       </c>
     </row>
     <row r="3">
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>42.15</v>
+        <v>42.13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.21</v>
+        <v>44.29</v>
       </c>
     </row>
     <row r="4">
@@ -457,16 +457,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>39.2</v>
+        <v>39.41</v>
       </c>
       <c r="E4">
-        <v>18.28</v>
+        <v>18.43</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>62.23</v>
+        <v>62.41</v>
       </c>
     </row>
     <row r="5">
@@ -482,16 +482,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>38.49</v>
+        <v>38.79</v>
       </c>
       <c r="E5">
-        <v>23.44</v>
+        <v>23.68</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>67.38</v>
+        <v>67.55</v>
       </c>
     </row>
     <row r="6">
@@ -507,16 +507,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>39.64</v>
+        <v>39.8</v>
       </c>
       <c r="E6">
-        <v>22.14</v>
+        <v>22.35</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>66.47</v>
+        <v>66.63</v>
       </c>
     </row>
     <row r="7">
@@ -532,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>39.66</v>
+        <v>39.89</v>
       </c>
       <c r="E7">
-        <v>20.67</v>
+        <v>20.88</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>66.41</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
     <row r="8">
